--- a/ProjectionControlScenario1.xlsx
+++ b/ProjectionControlScenario1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\V-Notching Study\90historical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mackenzie\Desktop\IBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A500B594-1D2D-446F-BBFC-B7E31A2673BC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D239581-C4B0-42CB-A728-69432B511576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YearToApplyAdaptiveManagement" sheetId="24" r:id="rId1"/>
@@ -31,13 +31,14 @@
     <sheet name="TACProject" sheetId="23" r:id="rId16"/>
     <sheet name="HandlingMProject" sheetId="10" r:id="rId17"/>
     <sheet name="FisheryProbProject" sheetId="12" r:id="rId18"/>
+    <sheet name="VNotchProject" sheetId="25" r:id="rId19"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="240">
   <si>
     <t>Parameters</t>
   </si>
@@ -755,6 +756,9 @@
   <si>
     <t>FisheryProb_30</t>
   </si>
+  <si>
+    <t>V-Notch ratio</t>
+  </si>
 </sst>
 </file>
 
@@ -34664,7 +34668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AH281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -84183,6 +84187,37 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D60BD3-F85D-4379-99A3-BBD48922A341}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
@@ -84565,7 +84600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -84588,7 +84623,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -89630,7 +89665,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ProjectionControlScenario1.xlsx
+++ b/ProjectionControlScenario1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mackenzie\Desktop\IBM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mackenzie\Desktop\IBLS_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D239581-C4B0-42CB-A728-69432B511576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EBC62E-95B1-4A0B-AA43-86826B2A2DA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t>limit for effort reference point</t>
-  </si>
-  <si>
-    <t>recruitment type.  0: random draw; 1: random draw from normal (mean+var); 2: B-H; 3: Ricker; 4: from worksheet</t>
   </si>
   <si>
     <t>min size to calculate abundance/biomass for BRP</t>
@@ -758,6 +755,9 @@
   </si>
   <si>
     <t>V-Notch ratio</t>
+  </si>
+  <si>
+    <t>recruitment type.  0: random draw from historical recruitment; 1:Ricker; 2: GAM with temperature; 3: "Weak" stock-recruitment relationship (Mazur et al. 2019)</t>
   </si>
 </sst>
 </file>
@@ -1232,33 +1232,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1787,7 +1787,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2148,34 +2148,34 @@
         <v>38</v>
       </c>
       <c r="AC1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="AH1" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="AI1" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
@@ -34682,7 +34682,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -34718,64 +34718,64 @@
         <v>48</v>
       </c>
       <c r="O1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" t="s">
         <v>155</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>157</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>158</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>159</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>160</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>161</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>162</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>163</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>164</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>165</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>166</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>167</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>168</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>169</v>
       </c>
-      <c r="AD1" t="s">
-        <v>170</v>
-      </c>
       <c r="AE1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF1" t="s">
         <v>215</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>216</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>217</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
@@ -63925,7 +63925,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -65392,34 +65392,34 @@
         <v>68</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="AD1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -65651,99 +65651,99 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="X1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="AD1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -65899,64 +65899,64 @@
         <v>78</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="AD1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -69561,64 +69561,64 @@
         <v>88</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="AE1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
@@ -84207,7 +84207,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -84239,33 +84239,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -84291,7 +84291,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -84317,7 +84317,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -84343,7 +84343,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -84369,7 +84369,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -84395,7 +84395,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -84421,7 +84421,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -84447,7 +84447,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -84473,7 +84473,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -84527,7 +84527,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1">
         <v>53</v>
@@ -84535,7 +84535,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1">
         <v>223</v>
@@ -84601,7 +84601,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -84620,7 +84620,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -89688,16 +89688,16 @@
         <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -92125,7 +92125,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/ProjectionControlScenario1.xlsx
+++ b/ProjectionControlScenario1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mackenzie\Desktop\IBLS_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EBC62E-95B1-4A0B-AA43-86826B2A2DA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD01CECA-2AAD-42CF-B6D9-F179D4F6AC30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,7 +757,7 @@
     <t>V-Notch ratio</t>
   </si>
   <si>
-    <t>recruitment type.  0: random draw from historical recruitment; 1:Ricker; 2: GAM with temperature; 3: "Weak" stock-recruitment relationship (Mazur et al. 2019)</t>
+    <t>recruitment type.  0: random draw from historical recruitment; 1: Input, 2: Ricker; 3: GAM with temperature; 4: "Weak" stock-recruitment relationship (Mazur et al. 2019)</t>
   </si>
 </sst>
 </file>
@@ -84601,7 +84601,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -84623,7 +84623,7 @@
         <v>239</v>
       </c>
       <c r="B2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -84637,7 +84637,7 @@
   <dimension ref="A1:F265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
